--- a/Docs/需求/代碼_會議_專案_20240325_01_04021430.xlsx
+++ b/Docs/需求/代碼_會議_專案_20240325_01_04021430.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\專長代碼表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0008E01-E0DD-4948-9D49-91F0A8A5D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B374386-92C2-4D70-9333-66837CA63D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="會議" sheetId="1" r:id="rId1"/>
@@ -1466,34 +1466,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1790,250 +1786,250 @@
       <selection activeCell="A12" sqref="A12:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>357</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>358</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>360</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>396</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>397</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2048,26 +2044,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5CEE46-A69C-4EB9-9023-82D0E66B3720}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="74.5703125" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="74.59765625" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="74.5703125" style="1"/>
+    <col min="1" max="1" width="10.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.59765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="74.59765625" style="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="74.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2077,2033 +2075,2613 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="F2" t="str">
+        <f>"Update Project Set DCode = '" &amp; D2 &amp; "' Where Name = '" &amp; B2 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set DCode = 'D15' Where Name = '環境部第1屆碳費費率審議會' </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">"Update Project Set DCode = '" &amp; D3 &amp; "' Where Name = '" &amp; B3 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set DCode = 'D14' Where Name = '113年輔導產業低污染排放技術計畫' </v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D13' Where Name = '113臺北市溫室氣體盤查管理及國際交流計畫' </v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D12' Where Name = '113年用水回收率查驗' </v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D11' Where Name = '經濟部產業發展署 113 年度計畫委員手冊' </v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D10' Where Name = '113年公部門用電效率管理計畫' </v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D9' Where Name = '113年因應國際環保暨綠色工廠推動計畫' </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D8' Where Name = '113年臺北市低碳家園建構及推動環境教育計畫' </v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D7' Where Name = '113年臺北市病媒防治深度策略計畫' </v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D6' Where Name = '113年精進公廁管理及提升環境衛生計畫' </v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D5' Where Name = '113年強化資源循環法規制度檢討研析計畫' </v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D4' Where Name = '113年產業綠色技術提升計畫' </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D3' Where Name = '113年加油(氣)站查核與輔導計畫' </v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D2' Where Name = '113年臺北市節電成效管考及節能教育宣導計畫' </v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'D1' Where Name = '113年臺北市環境教育行動方案暨環境講習推動執行計畫' </v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C49' Where Name = '112年用水回收率查驗' </v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C48' Where Name = '111-112年廢乾電池及廢照明光源高值化處理技術及再生料產值效益提升專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C47' Where Name = '111-112年促進環境衛生與一般廢棄物法令制度及作業檢討評析計畫' </v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C46' Where Name = '112年廢棄物及資源循環法制建構計畫' </v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C45' Where Name = '112年中區水情中心資訊展示系統更新維護' </v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C44' Where Name = '112-113年災害整備及應變與復原支援系統計畫(第1年)' </v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C43' Where Name = '112年淡水河流域水情中心系統軟硬體維護更新及軟體功能強化' </v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C42' Where Name = '112年臺北市病媒防治深度策略計畫' </v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C41' Where Name = '112年臺北市低碳家園建構及推動環境教育計畫' </v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C40' Where Name = '112年公廁查核輔導與整頓全國環境衛生業務管理工作計畫' </v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C39' Where Name = '112年學校精進管理能源輔導計畫' </v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C38' Where Name = '112年土壤及地下水宣導業務推廣計畫' </v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C37' Where Name = '112年推動惜食環境教育專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C36' Where Name = '112年源頭減量精進計畫' </v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C35' Where Name = '112年因應國際環保暨綠色工廠推動計畫' </v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C34' Where Name = '112年我國住商服務業溫室氣體減量策略及自願減量制度精進專案' </v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C33' Where Name = '112年臺北市推動因應氣候變遷行動計畫' </v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C32' Where Name = '112年環境影響評估審查會議支援暨評鑑考評專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C31' Where Name = '112年產業綠色技術提升計畫' </v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C30' Where Name = '112年輔導產業低污染排放技術計畫' </v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C29' Where Name = '112年化學物質及商品資訊蒐集與傳遞管理計畫' </v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C28' Where Name = '112年臺北市環境影響評估案件輔導管理及環境教育宣導' </v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C27' Where Name = '112年桃園市工廠綠色化輔導計畫' </v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C26' Where Name = '112年化學物質標示品質提升及管理策略研析計畫' </v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C25' Where Name = '112-113年應回收廢棄物稽核認證團體(廢機動車輛類-乙計畫—南區)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C24' Where Name = '112-113年應回收廢棄物稽核認證團體(廢電子電器類及廢資訊物品類-乙計畫—南區)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C23' Where Name = '112-113年應回收廢棄物稽核認證團體(非塑膠廢容器類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C22' Where Name = '112-113年應回收廢棄物稽核認證團體(廢輪胎類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C21' Where Name = '112年臺北市溫室氣體盤查管理及國際交流計畫' </v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C20' Where Name = '112-113年應回收廢棄物稽核認證團體(廢乾電池及廢照明光源類) 專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C19' Where Name = '112年中小型製造業低碳輔導計畫' </v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C18' Where Name = '112年產業節能輔導暨能效提升推動計畫' </v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C17' Where Name = '112年臺南市政府開放式防災資訊跨平台系統建置維護服務案' </v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C16' Where Name = '112年高雄市智慧水利監測密網計畫' </v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C15' Where Name = '112年電動車發展對回收處理體系影響暨精進廢車粉碎殘餘物(ASR)處理效能專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C14' Where Name = '112年油品銷售流向及安全存量管理與查核計畫' </v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C13' Where Name = '112年加油(氣)站查核與輔導計畫' </v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C12' Where Name = '112年高雄市雨水下水道即時水情監測系統建置計畫' </v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C11' Where Name = '111-112年原住民族聚落安居作業' </v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C10' Where Name = '112年公部門用電效率管理計畫' </v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C9' Where Name = '112年臺南市雨水下水道即時水情監測系統建置計畫' </v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C8' Where Name = '112年產業循環經濟推動輔導計畫' </v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C7' Where Name = '112年耗水費徵收行政作業支援' </v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C6' Where Name = '112年臺北市節電成效管考及節能教育宣導計畫' </v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C5' Where Name = '110-112年綠色採購制度精進及推動第2年(2年計畫)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C4' Where Name = '112年水災災情資訊整合與應用' </v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C3' Where Name = '112年第十河川局防汛護水志工訓練輔導計畫' </v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C2' Where Name = '112年臺南市因應氣候變遷推動淨零排放源減量計畫' </v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'C1' Where Name = '112年臺北市環境教育行動方案暨環境講習推動執行計畫' </v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B49' Where Name = '111年學校精進管理能源輔導計畫' </v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="1">"Update Project Set DCode = '" &amp; D67 &amp; "' Where Name = '" &amp; B67 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set DCode = 'B48' Where Name = '111-112年廢乾電池及廢照明光源高值化處理技術及再生料產值效益提升專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B47' Where Name = '111年多元水災災情資訊整合與應用' </v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B46' Where Name = '111年一河局轄區洪水預警及防汛整合作業' </v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B45' Where Name = '111年中區水情中心資訊展示系統更新維護' </v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B44' Where Name = '111年中區水資源局緊急應變系統資訊傳輸與維護' </v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B43' Where Name = '111年淡水河流域水情中心系統軟硬體維護更新及軟體功能強化' </v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B42' Where Name = '111年臺北市病媒防治深化策略計畫' </v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B41' Where Name = '111年臺北市低碳家園建構及推動環境教育計畫' </v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B40' Where Name = '111年精進環境衛生政策管理工作計畫' </v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B39' Where Name = '111年公廁改善工程查核輔導及成效精進專案計畫' </v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B38' Where Name = '111年土壤及地下水宣導業務推廣計畫' </v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B37' Where Name = '111年推動惜食環境教育專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B36' Where Name = '111年源頭減量精進計畫' </v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B35' Where Name = '111年因應國際環保暨綠色工廠推動計畫' </v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B34' Where Name = '111年我國住商服務業溫室氣體減量策略及自願減量制度精進專案計畫' </v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B33' Where Name = '111年臺北市推動因應氣候變遷行動計畫' </v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B32' Where Name = '111年環境影響評估審查會議支援暨評鑑考評專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B31' Where Name = '111年產業綠色技術提升計畫' </v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B30' Where Name = '111年輔導產業低污染排放技術計畫' </v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B29' Where Name = '111年化學物質標示及資訊傳遞品質提升計畫' </v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B28' Where Name = '111年臺北市環境影響評估案件輔導管理及環境教育宣導計畫' </v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B27' Where Name = '111年桃園市工廠綠色化輔導計畫' </v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B26' Where Name = '111年臺南低碳永續及溫室氣體減緩調適推動計畫' </v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B25' Where Name = '110-111年應回收廢棄物稽核認證團體(廢機動車輛類—南區)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B24' Where Name = '110-111年應回收廢棄物稽核認證團體(廢電子電器類及廢資訊物品類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B23' Where Name = '110-111年應回收廢棄物稽核認證團體(非塑膠廢容器類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B22' Where Name = '110-111年應回收廢棄物稽核認證團體(廢鉛蓄電池類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B21' Where Name = '110-111年應回收廢棄物稽核認證團體(廢塑膠容器類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B20' Where Name = '110-111年應回收廢棄物稽核認證團體(廢乾電池及廢照明光源類) 專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B19' Where Name = '111年保育組耗水費系統改版建置' </v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B18' Where Name = '111年新北市土石流災害應變研判及自主防災訓練管理執行計畫' </v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B17' Where Name = '111年臺南市政府消防局開放式防災資訊跨平台系統建置維護服務案' </v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B16' Where Name = '111年高雄市智慧水利監測密網計畫' </v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B15' Where Name = '111年電動車發展對回收處理體系影響暨精進廢車粉碎殘餘物(ASR)處理效能專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B14' Where Name = '111年油品銷售流向及安全存量管理與查核計畫' </v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B13' Where Name = '111年加油(氣)站查核與輔導計畫' </v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B12' Where Name = '111年民用航空局所屬航空站暨航空相關產業溫室氣體排放管理及氣候變遷調適能力推動計畫' </v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B11' Where Name = '111-112年原住民族聚落安居作業' </v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B10' Where Name = '111年公部門用電效率管理計畫' </v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B9' Where Name = '111年促進資源循環利用法令制度檢討評析計畫' </v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B8' Where Name = '111年學校永續能源精進管理輔導計畫(後續擴充)' </v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B7' Where Name = '111年耗水費徵收行政作業支援' </v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B6' Where Name = '111年臺北市節電成效管考及節能教育宣導計畫' </v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B5' Where Name = '110-112年綠色採購制度精進及推動第1年（2年計畫）專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B4' Where Name = '111年「臺北市綠色消費推廣及志義工培訓管理運用計畫」' </v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B3' Where Name = '111年產業能效提升暨管理計畫' </v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B2' Where Name = '111年製造部門減碳有價化推動計畫' </v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+      <c r="F114" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'B1' Where Name = '111年臺北市環境教育行動方案暨環境講習推動執行計畫' </v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="F115" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A43' Where Name = '110-112年南區大用水戶輔導節水工作計畫	' </v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A42' Where Name = '110年臺北市病媒防治深化策略計劃' </v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A41' Where Name = '110年臺北市低碳永續家園建構推動計畫' </v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="F118" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A40' Where Name = '110年公共環境戶外登革熱病媒蚊孳生源清除計畫' </v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="F119" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A39' Where Name = '110年公廁改善工程查核輔導及成效精進' </v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A38' Where Name = '110年土壤及地下水宣導業務推廣計畫' </v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="F121" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A37' Where Name = '110年資源循環教育推廣計畫' </v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A36' Where Name = '110年源頭減量精進計畫' </v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A35' Where Name = '110年因應國際環保暨綠色工廠推動計畫' </v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
+      <c r="F124" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A34' Where Name = '110年大用水戶用水查認作業計畫' </v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A33' Where Name = '110-112年加工出口區循環經濟暨低碳永續園區推動輔導計畫分包計畫' </v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A32' Where Name = '110年環境影響評估審查會議支援暨評鑑考評專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+      <c r="F127" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A31' Where Name = '110年產業綠色技術提升計畫' </v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A30' Where Name = '110年輔導產業低污染排放技術計畫' </v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A29' Where Name = '110年化學物質資訊品質提升及能力建構計畫' </v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="F130" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A28' Where Name = '110年事業廢棄物管理暨資源循環策略評析計畫' </v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F157" si="2">"Update Project Set DCode = '" &amp; D131 &amp; "' Where Name = '" &amp; B131 &amp; "' "</f>
+        <v xml:space="preserve">Update Project Set DCode = 'A27' Where Name = '110年桃園市工廠綠色化輔導計畫' </v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+      <c r="F132" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A26' Where Name = '110年臺北市固定汙染源管制暨餐飲業空污防制改善計畫' </v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A25' Where Name = '110-111年應回收廢棄物稽核認證團體(廢機動車輛類—南區)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A24' Where Name = '110-111年應回收廢棄物稽核認證團體(廢電子電器類及廢資訊物品類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A23' Where Name = '110-111年應回收廢棄物稽核認證團體(非塑膠廢容器類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A22' Where Name = '110-111年應回收廢棄物稽核認證團體(廢鉛蓄電池類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A21' Where Name = '110-111年應回收廢棄物稽核認證團體(廢塑膠容器類)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A20' Where Name = '110-111年應回收廢棄物稽核認證團體(廢乾電池及廢照明光源類) 專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A19' Where Name = '110年廢機動車輛回收處理體系管理精進計畫' </v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A18' Where Name = '110年廢容器回收處理體系管理專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A17' Where Name = '110年廢乾電池及廢照明光源回收處理體系檢討及管理策略精進專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A16' Where Name = '110年廢潤滑油回收處理體系管理機制及策略研擬專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+      <c r="F143" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A15' Where Name = '110年檢討新興產品回收工作計畫' </v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A14' Where Name = '110年「油品銷售流向及安全存量管理與查核」' </v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A13' Where Name = '110年「加油(氣)站查核與輔導」' </v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F146" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A12' Where Name = '110年民用航空局所屬航空站溫室氣體盤查暨查證輔導計畫' </v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -4112,12 +4690,16 @@
       <c r="D147" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F147" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A11' Where Name = '110年我國建物溫室氣體減量暨城市韌性機制推動專案計畫' </v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -4126,12 +4708,16 @@
       <c r="D148" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A10' Where Name = '110年公部門用電效率管理計畫' </v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -4140,12 +4726,16 @@
       <c r="D149" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A9' Where Name = '110年桃園市生態物流社群專案計畫' </v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -4154,12 +4744,16 @@
       <c r="D150" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A8' Where Name = '110年學校永續能源精進管理輔導計畫' </v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4168,12 +4762,16 @@
       <c r="D151" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A7' Where Name = '110年「桃園市用電大戶輔導及公民電廠推廣」計畫' </v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -4182,12 +4780,16 @@
       <c r="D152" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F152" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A6' Where Name = '110年「臺北市節電成效管考及環境教育宣導計畫」' </v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -4196,12 +4798,16 @@
       <c r="D153" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A5' Where Name = '110-112年綠色採購制度精進及推動第1年(2年計畫)專案工作計畫' </v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -4210,12 +4816,16 @@
       <c r="D154" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F154" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A4' Where Name = '110年「臺北市綠色消費推廣及志義工培訓管理運用計畫」' </v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -4224,12 +4834,16 @@
       <c r="D155" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A3' Where Name = '110年產業能效提升暨管理計畫' </v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -4238,12 +4852,16 @@
       <c r="D156" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F156" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A2' Where Name = '110年製造部門減碳有價化推動計畫' </v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -4252,9 +4870,13 @@
       <c r="D157" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="12"/>
+      <c r="F157" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Update Project Set DCode = 'A1' Where Name = '110年臺北市環境教育行動方案暨環境講習推動執行計畫' </v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B170" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D157" xr:uid="{1D5CEE46-A69C-4EB9-9023-82D0E66B3720}"/>
